--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,324 +32,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="106">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_input_valid_4</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="108">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_input_valid_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -440,13 +446,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -482,15 +492,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,62 +535,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -588,21 +598,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -617,35 +635,35 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -662,7 +680,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -679,7 +697,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -696,7 +714,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -713,7 +731,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -730,7 +748,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -748,7 +766,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -763,32 +781,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -802,7 +820,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -816,7 +834,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -830,7 +848,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -844,7 +862,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -858,7 +876,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -872,7 +890,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -886,7 +904,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -900,7 +918,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -914,7 +932,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -928,7 +946,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -942,7 +960,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -956,7 +974,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -971,7 +989,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -986,32 +1004,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1025,7 +1043,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1039,7 +1057,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1053,7 +1071,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1067,7 +1085,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1081,7 +1099,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1095,7 +1113,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1109,7 +1127,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1123,7 +1141,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1137,7 +1155,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1151,7 +1169,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1165,7 +1183,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1179,7 +1197,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1193,7 +1211,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1207,7 +1225,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1221,7 +1239,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1235,7 +1253,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1249,7 +1267,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1263,7 +1281,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1277,7 +1295,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1292,7 +1310,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1307,74 +1325,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1385,19 +1403,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1408,22 +1426,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1434,16 +1452,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1454,19 +1472,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1477,22 +1495,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1503,10 +1521,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1517,10 +1535,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1531,10 +1549,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1545,10 +1563,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1559,10 +1577,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1573,10 +1591,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1587,10 +1605,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1602,7 +1620,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1617,83 +1635,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1758,7 +1776,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1823,7 +1841,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1888,7 +1906,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1953,7 +1971,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2018,7 +2036,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2083,7 +2101,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2148,7 +2166,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2213,7 +2231,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2278,7 +2296,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2343,7 +2361,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2408,7 +2426,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2473,7 +2491,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2539,7 +2557,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2554,41 +2572,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2605,10 +2623,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2625,10 +2643,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2645,10 +2663,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2665,10 +2683,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2685,10 +2703,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2705,10 +2723,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2725,10 +2743,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2745,10 +2763,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2765,10 +2783,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2785,10 +2803,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2805,10 +2823,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2825,10 +2843,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2845,10 +2863,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2865,10 +2883,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2885,10 +2903,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2905,10 +2923,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2925,10 +2943,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2945,10 +2963,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2965,10 +2983,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2986,7 +3004,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3001,38 +3019,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3043,10 +3061,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3057,10 +3075,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3071,10 +3089,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3085,10 +3103,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3099,10 +3117,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3113,10 +3131,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3127,10 +3145,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3141,10 +3159,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3155,10 +3173,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3169,10 +3187,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3183,10 +3201,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3197,10 +3215,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3212,7 +3230,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3227,89 +3245,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3324,124 +3342,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3456,124 +3474,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3588,18 +3606,18 @@
   </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5:B5 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,7 +3688,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3685,29 +3703,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3718,7 +3736,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3729,7 +3747,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3740,7 +3758,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3751,7 +3769,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3762,7 +3780,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3773,7 +3791,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3784,7 +3802,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3795,7 +3813,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3806,7 +3824,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3817,7 +3835,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3828,7 +3846,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3839,7 +3857,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3850,7 +3868,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3861,7 +3879,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3872,7 +3890,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3883,7 +3901,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3894,7 +3912,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3905,7 +3923,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3916,7 +3934,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3928,7 +3946,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_input_valid_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -492,10 +474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,24 +493,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -587,6 +569,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -596,27 +581,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -636,7 +603,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,24 +613,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -680,7 +647,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -697,7 +664,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -714,7 +681,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -731,7 +698,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -748,7 +715,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -782,7 +749,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -792,21 +759,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -820,7 +787,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -834,7 +801,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -848,7 +815,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -862,7 +829,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -876,7 +843,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -890,7 +857,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -904,7 +871,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -918,7 +885,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -932,7 +899,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -946,7 +913,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -960,7 +927,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -974,7 +941,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1005,7 +972,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1015,21 +982,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1043,7 +1010,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1057,7 +1024,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1071,7 +1038,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1085,7 +1052,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1099,7 +1066,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1113,7 +1080,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1127,7 +1094,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1141,7 +1108,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1155,7 +1122,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1169,7 +1136,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1183,7 +1150,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1197,7 +1164,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1211,7 +1178,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1225,7 +1192,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1239,7 +1206,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1253,7 +1220,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1267,7 +1234,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1281,7 +1248,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1295,7 +1262,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1326,13 +1293,13 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
@@ -1342,57 +1309,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1403,19 +1370,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1426,22 +1393,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1452,16 +1419,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1472,19 +1439,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1495,22 +1462,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1521,10 +1488,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1535,10 +1502,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1549,10 +1516,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1563,10 +1530,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1577,10 +1544,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1591,10 +1558,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1605,10 +1572,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1636,7 +1603,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1646,72 +1613,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1776,7 +1743,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1841,7 +1808,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1906,7 +1873,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1971,7 +1938,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2036,7 +2003,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2101,7 +2068,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2166,7 +2133,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2231,7 +2198,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2296,7 +2263,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2361,7 +2328,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2426,7 +2393,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2491,7 +2458,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2570,434 +2537,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3017,214 +2859,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3047,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3256,72 +3057,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3144,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3353,107 +3154,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3475,7 +3276,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3485,107 +3286,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3408,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5:B5 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B3 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3617,7 +3418,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,7 +3505,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3714,18 +3515,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3736,7 +3537,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3747,7 +3548,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3758,7 +3559,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3769,7 +3570,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3780,7 +3581,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3791,7 +3592,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3802,7 +3603,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3813,7 +3614,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3824,7 +3625,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3835,7 +3636,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3846,7 +3647,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3857,7 +3658,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3868,7 +3669,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3879,7 +3680,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3890,7 +3691,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3901,7 +3702,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3912,7 +3713,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3923,7 +3724,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3934,7 +3735,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,7 +603,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -749,7 +749,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -972,7 +972,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1293,7 +1293,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2540,7 +2540,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2862,7 +2862,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3047,7 +3047,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3144,7 +3144,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3276,7 +3276,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3408,7 +3408,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B3 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3505,7 +3505,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -441,12 +438,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -476,7 +473,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -613,19 +610,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,16 +756,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,16 +979,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,40 +1306,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,13 +1347,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1373,16 +1370,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1396,16 +1393,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1422,13 +1419,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1442,16 +1439,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1465,16 +1462,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1491,7 +1488,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1505,7 +1502,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1519,7 +1516,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1533,7 +1530,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1547,7 +1544,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1561,7 +1558,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1575,7 +1572,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2537,16 +2534,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,21 +2556,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2581,13 +2572,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,13 +2583,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2609,13 +2594,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2623,111 +2605,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2735,13 +2693,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2749,13 +2704,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2763,13 +2715,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,13 +2726,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2791,13 +2737,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2805,13 +2748,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2819,13 +2759,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2833,13 +2770,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2876,20 +2810,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2900,7 +2834,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2911,7 +2845,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2922,7 +2856,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2933,7 +2867,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2944,7 +2878,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2955,7 +2889,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2966,7 +2900,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2977,7 +2911,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2988,7 +2922,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2999,7 +2933,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -3010,7 +2944,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -3021,7 +2955,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3154,7 +3088,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,7 +3220,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,7 +3352,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,13 +3449,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -597,152 +596,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -961,7 +814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1282,7 +1135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2536,7 +2389,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2978,9 +2831,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2991,72 +2844,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3207,138 +3095,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3431,7 +3187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3687,4 +3443,150 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -424,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,6 +444,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -472,8 +485,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,64 +534,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -599,7 +626,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -609,21 +636,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -637,7 +664,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -651,7 +678,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -665,7 +692,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -679,7 +706,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -693,7 +720,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -707,7 +734,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -721,7 +748,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -735,7 +762,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -749,7 +776,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -763,7 +790,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -777,7 +804,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -791,7 +818,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -822,7 +849,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -832,21 +859,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -860,7 +887,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -874,7 +901,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -888,7 +915,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -902,7 +929,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -916,7 +943,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -930,7 +957,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -944,7 +971,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -958,7 +985,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -972,7 +999,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -986,7 +1013,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1000,7 +1027,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1014,7 +1041,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1028,7 +1055,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1042,7 +1069,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1056,7 +1083,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1070,7 +1097,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1084,7 +1111,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1098,7 +1125,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1112,7 +1139,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1143,7 +1170,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A6:B7 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1159,57 +1186,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1220,19 +1247,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1243,22 +1270,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1269,16 +1296,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1289,19 +1316,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1312,22 +1339,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1338,10 +1365,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1352,10 +1379,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1366,10 +1393,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1380,10 +1407,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1394,10 +1421,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1408,10 +1435,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1422,10 +1449,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1453,7 +1480,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1463,72 +1490,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1593,7 +1620,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1658,7 +1685,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1723,7 +1750,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1788,7 +1815,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1853,7 +1880,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1918,7 +1945,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1983,7 +2010,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2048,7 +2075,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2113,7 +2140,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2178,7 +2205,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2243,7 +2270,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2308,7 +2335,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2390,7 +2417,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2401,21 +2428,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2423,10 +2450,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2434,10 +2461,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2445,10 +2472,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2456,10 +2483,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2467,10 +2494,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2478,10 +2505,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2489,10 +2516,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2500,10 +2527,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2511,10 +2538,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2522,10 +2549,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2533,10 +2560,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2544,10 +2571,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2555,10 +2582,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2566,10 +2593,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2577,10 +2604,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2588,10 +2615,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2599,10 +2626,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2610,10 +2637,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2621,10 +2648,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2649,7 +2676,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2660,24 +2687,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2685,10 +2712,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2696,10 +2723,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2707,10 +2734,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2718,10 +2745,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2729,10 +2756,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2740,10 +2767,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2751,10 +2778,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2762,10 +2789,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2773,10 +2800,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2784,10 +2811,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2795,10 +2822,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2806,10 +2833,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2833,8 +2860,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2844,107 +2871,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2993,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2976,107 +3003,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3098,7 +3125,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A6:B7 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3108,7 +3135,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,7 +3222,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3205,18 +3232,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3227,7 +3254,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3238,7 +3265,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3249,7 +3276,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3260,7 +3287,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3271,7 +3298,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3282,7 +3309,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3293,7 +3320,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3304,7 +3331,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3315,7 +3342,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3326,7 +3353,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3337,7 +3364,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3348,7 +3375,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3359,7 +3386,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3370,7 +3397,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3381,7 +3408,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3392,7 +3419,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3403,7 +3430,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3414,7 +3441,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3425,7 +3452,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3453,7 +3480,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A6:B7 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3463,24 +3490,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3497,7 +3524,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3514,7 +3541,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3531,7 +3558,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3548,7 +3575,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3565,7 +3592,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
